--- a/productionOptModel/dataInputs/inputSheet.xlsx
+++ b/productionOptModel/dataInputs/inputSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\KAUST\productionOptModel\dataInputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436F64D8-243E-422B-AD6A-D10B259DBFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC4FD30-5960-4357-8BCA-D1B3727BAFF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15163" yWindow="1234" windowWidth="24686" windowHeight="9566" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="systemSettings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="63">
   <si>
     <t>Name</t>
   </si>
@@ -213,20 +213,28 @@
     <t>https://www-rsc-org.proxy.lib.umich.edu/suppdata/d0/ee/d0ee01707h/d0ee01707h1.pdf</t>
   </si>
   <si>
-    <t>kg/timePeriod</t>
-  </si>
-  <si>
     <t>User Input</t>
+  </si>
+  <si>
+    <t>rampingRateASU</t>
+  </si>
+  <si>
+    <t>rampingRateHB</t>
+  </si>
+  <si>
+    <t>kg/day</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -301,7 +309,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -335,11 +343,14 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -650,23 +661,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.3046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.69140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.15234375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.69140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -682,24 +693,24 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="5">
-        <f>200*1000*365</f>
-        <v>73000000</v>
+        <f>200*1000</f>
+        <v>200000</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -715,7 +726,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -731,7 +742,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -741,13 +752,13 @@
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>55</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -757,13 +768,13 @@
       <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>55</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -780,7 +791,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -797,7 +808,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -814,7 +825,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -831,7 +842,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -847,7 +858,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -864,7 +875,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -881,7 +892,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -898,7 +909,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -915,7 +926,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -932,7 +943,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
@@ -949,7 +960,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -966,7 +977,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -983,7 +994,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -1000,7 +1011,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -1016,7 +1027,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>43</v>
       </c>
@@ -1033,7 +1044,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
@@ -1050,12 +1061,12 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B24" s="9">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>49</v>
@@ -1066,12 +1077,12 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B25" s="9">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>49</v>
@@ -1082,7 +1093,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>52</v>
       </c>
@@ -1098,42 +1109,66 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="13">
-        <v>7.4999999999999997E-2</v>
+        <v>60</v>
+      </c>
+      <c r="B27" s="9">
+        <v>0.2</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D32" s="1"/>
+    <row r="32" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="4:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="4:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1152,20 +1187,20 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.53515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.15234375" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.3046875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3046875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.69140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.3046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.33203125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1185,7 +1220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -1197,10 +1232,10 @@
         <f>0.02*B2</f>
         <v>9000</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="15">
         <v>2E-3</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14">
         <f>(47.571/0.934)/1000</f>
         <v>5.0932548179871515E-2</v>
       </c>
@@ -1224,15 +1259,15 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.3046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.53515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1252,7 +1287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>

--- a/productionOptModel/dataInputs/inputSheet.xlsx
+++ b/productionOptModel/dataInputs/inputSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\KAUST\productionOptModel\dataInputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC4FD30-5960-4357-8BCA-D1B3727BAFF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F5E3B0-60B9-4C27-9D0B-BBDDD1FE5C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="64">
   <si>
     <t>Name</t>
   </si>
@@ -114,9 +114,6 @@
     <t>capexWind</t>
   </si>
   <si>
-    <t>d0ee01707h1.pdf (umich.edu)</t>
-  </si>
-  <si>
     <t>capexSolar</t>
   </si>
   <si>
@@ -223,6 +220,12 @@
   </si>
   <si>
     <t>kg/day</t>
+  </si>
+  <si>
+    <t>Flexible production of green hydrogen and ammonia from variable solar and wind energy: Case study of Chile and Argentina - ScienceDirect (umich.edu)</t>
+  </si>
+  <si>
+    <t>The rest are from the main paper:  from https://www-rsc-org.proxy.lib.umich.edu/suppdata/d0/ee/d0ee01707h/d0ee01707h1.pdf</t>
   </si>
 </sst>
 </file>
@@ -663,8 +666,8 @@
   </sheetPr>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -702,10 +705,10 @@
         <v>200000</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -721,7 +724,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -737,7 +740,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -753,7 +756,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -769,7 +772,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -820,14 +823,14 @@
         <v>7</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="6">
         <f>1200*1000</f>
@@ -837,47 +840,47 @@
         <v>7</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="5">
         <v>500</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="6">
         <f>400*1000</f>
         <v>400000</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="6">
         <f>(13182*1000)</f>
@@ -887,14 +890,14 @@
         <v>7</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="6">
         <f>6467*1000</f>
@@ -904,14 +907,14 @@
         <v>7</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="6">
         <f>35*1000</f>
@@ -921,14 +924,14 @@
         <v>7</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="6">
         <f>10*1000</f>
@@ -938,14 +941,14 @@
         <v>7</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="5">
         <f>0.02*B11</f>
@@ -955,31 +958,31 @@
         <v>7</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="5">
         <f>0.02*B12</f>
         <v>8000</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="5">
         <f>0.02*B13</f>
@@ -989,14 +992,14 @@
         <v>7</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="5">
         <f>0.02*B14</f>
@@ -1006,14 +1009,14 @@
         <v>7</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="12">
         <v>0</v>
@@ -1022,129 +1025,133 @@
         <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="12">
         <f>0.11/1000</f>
         <v>1.1E-4</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" s="12">
         <f>0.532/1000</f>
         <v>5.3200000000000003E-4</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>26</v>
+        <v>46</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" s="9">
         <v>0.2</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>26</v>
+        <v>48</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25" s="9">
         <v>0.2</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>26</v>
+        <v>48</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" s="5">
         <v>30</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>26</v>
+        <v>50</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B27" s="9">
         <v>0.2</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="11"/>
+        <v>48</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B28" s="9">
         <v>0.2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="11"/>
+        <v>48</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29" s="16">
         <v>0.08</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>26</v>
+        <v>48</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1186,8 +1193,8 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1233,7 +1240,7 @@
         <v>9000</v>
       </c>
       <c r="D2" s="15">
-        <v>2E-3</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="E2" s="14">
         <f>(47.571/0.934)/1000</f>
@@ -1253,10 +1260,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1298,7 +1305,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -1307,7 +1314,26 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" display="https://www-sciencedirect-com.proxy.lib.umich.edu/science/article/pii/S0360319919342089" xr:uid="{CEC888E5-235A-4FAB-ACAF-0164CD000A96}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/productionOptModel/dataInputs/inputSheet.xlsx
+++ b/productionOptModel/dataInputs/inputSheet.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\KAUST\productionOptModel\dataInputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F5E3B0-60B9-4C27-9D0B-BBDDD1FE5C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373D94E5-5104-43BF-B92F-16EFA1406483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6763" yWindow="3206" windowWidth="24686" windowHeight="9565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="systemSettings" sheetId="1" r:id="rId1"/>
     <sheet name="eyUnitSettings" sheetId="2" r:id="rId2"/>
     <sheet name="eyUnitExplanation" sheetId="3" r:id="rId3"/>
+    <sheet name="eyScaling" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="77">
   <si>
     <t>Name</t>
   </si>
@@ -226,6 +227,45 @@
   </si>
   <si>
     <t>The rest are from the main paper:  from https://www-rsc-org.proxy.lib.umich.edu/suppdata/d0/ee/d0ee01707h/d0ee01707h1.pdf</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>fcDeployEfficiency</t>
+  </si>
+  <si>
+    <t>capexFC</t>
+  </si>
+  <si>
+    <t>fixedOpexFC</t>
+  </si>
+  <si>
+    <t>energyDensityFC</t>
+  </si>
+  <si>
+    <t>Equations</t>
+  </si>
+  <si>
+    <t>fcLifetime</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>large</t>
+  </si>
+  <si>
+    <t>%/hour</t>
+  </si>
+  <si>
+    <t>Large-scale production and transport of hydrogen from Norway to Europe and Japan: Value chain analysis and comparison of liquid hydrogen and ammonia as energy carriers - ScienceDirect (umich.edu)</t>
+  </si>
+  <si>
+    <t>hsVaporizationRate</t>
+  </si>
+  <si>
+    <t>utilizationRatio</t>
   </si>
 </sst>
 </file>
@@ -312,7 +352,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -354,6 +394,30 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="7" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -664,23 +728,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.3046875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.69140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.07421875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.69140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3046875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -696,7 +760,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -713,7 +777,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -729,7 +793,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -745,7 +809,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -761,7 +825,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -777,233 +841,232 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:6" s="21" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" spans="1:6" s="21" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="25">
+        <f>0.1/24</f>
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+    </row>
+    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B9" s="9">
         <f>177/1000</f>
         <v>0.17699999999999999</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B10" s="9">
         <f>823/1000</f>
         <v>0.82299999999999995</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="6">
-        <f>1300*1000</f>
-        <v>1300000</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="6">
-        <f>1200*1000</f>
-        <v>1200000</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="5">
-        <v>500</v>
+        <v>25</v>
+      </c>
+      <c r="B11" s="6">
+        <f>800*1000</f>
+        <v>800000</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>57</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="6">
+        <f>700*1000</f>
+        <v>700000</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="5">
+        <v>500</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B14" s="6">
         <f>400*1000</f>
         <v>400000</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D14" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" s="21" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="22">
+        <f>960*1000</f>
+        <v>960000</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B16" s="6">
         <f>(13182*1000)</f>
         <v>13182000</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D16" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B17" s="6">
         <f>6467*1000</f>
         <v>6467000</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C17" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B18" s="6">
         <f>35*1000</f>
         <v>35000</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C18" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B19" s="6">
         <f>10*1000</f>
         <v>10000</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="5">
-        <f>0.02*B11</f>
-        <v>10</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="5">
-        <f>0.02*B12</f>
-        <v>8000</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="5">
-        <f>0.02*B13</f>
-        <v>263640</v>
-      </c>
       <c r="C19" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B20" s="5">
-        <f>0.02*B14</f>
-        <v>129340</v>
+        <f>0.02*B13</f>
+        <v>10</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>7</v>
@@ -1014,140 +1077,147 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="12">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="B21" s="5">
+        <f>0.02*B14</f>
+        <v>8000</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:6" s="21" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="24">
+        <f>0.02*B15</f>
+        <v>19200</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="5">
+        <f>0.02*B16</f>
+        <v>263640</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="5">
+        <f>0.02*B17</f>
+        <v>129340</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="12">
+        <v>0</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="12">
+        <f>33.6/1000</f>
+        <v>3.3600000000000005E-2</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B27" s="12">
         <f>0.11/1000</f>
         <v>1.1E-4</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B28" s="12">
         <f>0.532/1000</f>
         <v>5.3200000000000003E-4</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="5">
-        <v>30</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="16">
-        <v>0.08</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -1156,31 +1226,137 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="5">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="4:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="4:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+    <row r="32" spans="1:6" s="21" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="24">
+        <v>5</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+    </row>
+    <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="26">
+        <v>0.95</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" display="https://www.eia.gov/todayinenergy/detail.php?id=46756" xr:uid="{42A22C02-7EB7-413C-977A-B6FEDF598BB5}"/>
     <hyperlink ref="D6" r:id="rId2" display="https://www.eia.gov/todayinenergy/detail.php?id=46756" xr:uid="{6E0F255B-D62E-4ACA-B20D-3797B3854F10}"/>
+    <hyperlink ref="D11" r:id="rId3" xr:uid="{ADAFA0DD-53B6-4FFA-935E-26B412C7D10A}"/>
+    <hyperlink ref="D8" r:id="rId4" location="sec1" display="https://www-sciencedirect-com.proxy.lib.umich.edu/science/article/pii/S036031992033384X - sec1" xr:uid="{B3C7EFC7-C802-40EA-B68D-E316BAD7929E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1191,23 +1367,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.53515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.07421875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.3046875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.69140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.3046875" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1227,17 +1403,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>0</v>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="B2" s="6">
-        <f>450*1000</f>
-        <v>450000</v>
+        <f>600*1000</f>
+        <v>600000</v>
       </c>
       <c r="C2" s="6">
         <f>0.02*B2</f>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="D2" s="15">
         <v>5.3999999999999999E-2</v>
@@ -1247,7 +1423,53 @@
         <v>5.0932548179871515E-2</v>
       </c>
       <c r="F2" s="5">
-        <v>50</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="6">
+        <f>550*1000</f>
+        <v>550000</v>
+      </c>
+      <c r="C3" s="6">
+        <f t="shared" ref="C3:C4" si="0">0.02*B3</f>
+        <v>11000</v>
+      </c>
+      <c r="D3" s="15">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E3" s="14">
+        <f t="shared" ref="E3:E4" si="1">(47.571/0.934)/1000</f>
+        <v>5.0932548179871515E-2</v>
+      </c>
+      <c r="F3" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="6">
+        <f>500*1000</f>
+        <v>500000</v>
+      </c>
+      <c r="C4" s="6">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="D4" s="15">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E4" s="14">
+        <f t="shared" si="1"/>
+        <v>5.0932548179871515E-2</v>
+      </c>
+      <c r="F4" s="7">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1266,15 +1488,15 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.3046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.53515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.53515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.53515625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1294,7 +1516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1314,10 +1536,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1325,7 +1547,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>63</v>
       </c>
@@ -1336,4 +1558,16 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CCF4B71-2494-47A7-9B0D-A6CDC46B7EA3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/productionOptModel/dataInputs/inputSheet.xlsx
+++ b/productionOptModel/dataInputs/inputSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\KAUST\productionOptModel\dataInputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373D94E5-5104-43BF-B92F-16EFA1406483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844BED11-96DE-42AA-89A4-68BC6C73CE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6763" yWindow="3206" windowWidth="24686" windowHeight="9565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4251" yWindow="3540" windowWidth="24686" windowHeight="9454" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="systemSettings" sheetId="1" r:id="rId1"/>
@@ -730,8 +730,8 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -765,8 +765,8 @@
         <v>14</v>
       </c>
       <c r="B2" s="5">
-        <f>200*1000</f>
-        <v>200000</v>
+        <f>3288*1000</f>
+        <v>3288000</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>61</v>
